--- a/paper/figure23.xlsx
+++ b/paper/figure23.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="22980" windowHeight="9528"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="22980" windowHeight="9528" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="100 patients" sheetId="1" r:id="rId1"/>
+    <sheet name="All patients" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
   <si>
     <t>KEGG</t>
   </si>
@@ -129,7 +130,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$2</c:f>
+              <c:f>'100 patients'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -141,7 +142,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$D$1</c:f>
+              <c:f>'100 patients'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -158,7 +159,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$D$2</c:f>
+              <c:f>'100 patients'!$B$2:$D$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -180,7 +181,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$3</c:f>
+              <c:f>'100 patients'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -192,7 +193,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$D$1</c:f>
+              <c:f>'100 patients'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -209,7 +210,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$D$3</c:f>
+              <c:f>'100 patients'!$B$3:$D$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -231,7 +232,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$4</c:f>
+              <c:f>'100 patients'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -243,7 +244,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$D$1</c:f>
+              <c:f>'100 patients'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -260,7 +261,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$D$4</c:f>
+              <c:f>'100 patients'!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -286,11 +287,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="95761152"/>
-        <c:axId val="95763072"/>
+        <c:axId val="60637952"/>
+        <c:axId val="60639872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95761152"/>
+        <c:axId val="60637952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -318,7 +319,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95763072"/>
+        <c:crossAx val="60639872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -326,7 +327,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95763072"/>
+        <c:axId val="60639872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -362,7 +363,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95761152"/>
+        <c:crossAx val="60637952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -412,7 +413,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$22</c:f>
+              <c:f>'100 patients'!$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -425,7 +426,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$21:$D$21</c:f>
+              <c:f>'100 patients'!$B$21:$D$21</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -442,7 +443,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$22:$D$22</c:f>
+              <c:f>'100 patients'!$B$22:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -464,7 +465,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$23</c:f>
+              <c:f>'100 patients'!$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -477,7 +478,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$21:$D$21</c:f>
+              <c:f>'100 patients'!$B$21:$D$21</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -494,7 +495,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$23:$D$23</c:f>
+              <c:f>'100 patients'!$B$23:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -516,7 +517,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$24</c:f>
+              <c:f>'100 patients'!$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -528,7 +529,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$21:$D$21</c:f>
+              <c:f>'100 patients'!$B$21:$D$21</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -545,7 +546,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$24:$D$24</c:f>
+              <c:f>'100 patients'!$B$24:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -567,7 +568,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$25</c:f>
+              <c:f>'100 patients'!$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -579,7 +580,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$21:$D$21</c:f>
+              <c:f>'100 patients'!$B$21:$D$21</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -596,7 +597,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$25:$D$25</c:f>
+              <c:f>'100 patients'!$B$25:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -622,11 +623,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="96089600"/>
-        <c:axId val="96091520"/>
+        <c:axId val="66401792"/>
+        <c:axId val="66403712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96089600"/>
+        <c:axId val="66401792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -654,7 +655,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96091520"/>
+        <c:crossAx val="66403712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -662,7 +663,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96091520"/>
+        <c:axId val="66403712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -698,7 +699,629 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96089600"/>
+        <c:crossAx val="66401792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="he-IL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'All patients'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>α=0.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'All patients'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>KEGG</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>COSMIC - AML</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>COSMIC - cancer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'All patients'!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.6199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'All patients'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>α=0.75</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'All patients'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>KEGG</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>COSMIC - AML</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>COSMIC - cancer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'All patients'!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.6199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'All patients'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>α=0.9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'All patients'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>KEGG</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>COSMIC - AML</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>COSMIC - cancer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'All patients'!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3699999999999992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="38323328"/>
+        <c:axId val="38325248"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="38323328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Dataset</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="38325248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="38325248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>-log(p-value)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="38323328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="he-IL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'All patients'!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mutations
+Only (i)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'All patients'!$B$21:$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>KEGG</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>COSMIC - AML</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>COSMIC - cancer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'All patients'!$B$22:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3699999999999992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'All patients'!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Expression
+Only (ii)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'All patients'!$B$21:$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>KEGG</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>COSMIC - AML</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>COSMIC - cancer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'All patients'!$B$23:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'All patients'!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average (iii)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'All patients'!$B$21:$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>KEGG</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>COSMIC - AML</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>COSMIC - cancer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'All patients'!$B$24:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.6199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'All patients'!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Maximum (iiii)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'All patients'!$B$21:$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>KEGG</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>COSMIC - AML</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>COSMIC - cancer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'All patients'!$B$25:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.6199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="40990592"/>
+        <c:axId val="41005056"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="40990592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Dataset</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="41005056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="41005056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>-log(p-value)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="40990592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -838,6 +1461,169 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.36026</cdr:x>
+      <cdr:y>0.76417</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.96538</cdr:x>
+      <cdr:y>0.76446</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="Straight Connector 2"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
+          <a:off x="1647093" y="2633766"/>
+          <a:ext cx="2766624" cy="995"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>531056</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14361</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409135</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>128662</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>23446</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>143608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>586153</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>73270</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.27972</cdr:x>
+      <cdr:y>0.72535</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.97323</cdr:x>
+      <cdr:y>0.72748</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="5" name="Straight Connector 4"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
+          <a:off x="1274304" y="1996157"/>
+          <a:ext cx="3159345" cy="5862"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -1173,8 +1959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1317,13 +2103,147 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>6.43</v>
+      </c>
+      <c r="C2">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="D2">
+        <v>56.28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>6.43</v>
+      </c>
+      <c r="C3">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="D3">
+        <v>53.76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>6.43</v>
+      </c>
+      <c r="C4">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="D4">
+        <v>54.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>6.43</v>
+      </c>
+      <c r="C22">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="D22">
+        <v>54.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>6.43</v>
+      </c>
+      <c r="C23">
+        <v>5.87</v>
+      </c>
+      <c r="D23">
+        <v>46.56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>6.43</v>
+      </c>
+      <c r="C24">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="D24">
+        <v>52.14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>6.43</v>
+      </c>
+      <c r="C25">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="D25">
+        <v>48.92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1337,4 +2257,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/paper/figure23.xlsx
+++ b/paper/figure23.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="14">
   <si>
     <t>KEGG</t>
   </si>
@@ -49,6 +49,18 @@
   </si>
   <si>
     <t>Maximum (iiii)</t>
+  </si>
+  <si>
+    <t>(mutations)</t>
+  </si>
+  <si>
+    <t>(de)</t>
+  </si>
+  <si>
+    <t>(average)</t>
+  </si>
+  <si>
+    <t>(max)</t>
   </si>
 </sst>
 </file>
@@ -287,11 +299,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="60637952"/>
-        <c:axId val="60639872"/>
+        <c:axId val="49989504"/>
+        <c:axId val="49999872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="60637952"/>
+        <c:axId val="49989504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -319,7 +331,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60639872"/>
+        <c:crossAx val="49999872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -327,7 +339,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60639872"/>
+        <c:axId val="49999872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -363,7 +375,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60637952"/>
+        <c:crossAx val="49989504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -623,11 +635,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="66401792"/>
-        <c:axId val="66403712"/>
+        <c:axId val="50629248"/>
+        <c:axId val="50635520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66401792"/>
+        <c:axId val="50629248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -655,7 +667,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66403712"/>
+        <c:crossAx val="50635520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -663,7 +675,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66403712"/>
+        <c:axId val="50635520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -699,7 +711,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66401792"/>
+        <c:crossAx val="50629248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -792,7 +804,7 @@
                   <c:v>8.6199999999999992</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56.28</c:v>
+                  <c:v>54.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -894,7 +906,7 @@
                   <c:v>9.3699999999999992</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54.6</c:v>
+                  <c:v>52.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -909,11 +921,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="38323328"/>
-        <c:axId val="38325248"/>
+        <c:axId val="92367872"/>
+        <c:axId val="92370048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="38323328"/>
+        <c:axId val="92367872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -941,7 +953,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38325248"/>
+        <c:crossAx val="92370048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -949,7 +961,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38325248"/>
+        <c:axId val="92370048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -985,7 +997,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38323328"/>
+        <c:crossAx val="92367872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -1245,11 +1257,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="40990592"/>
-        <c:axId val="41005056"/>
+        <c:axId val="92401664"/>
+        <c:axId val="92403584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="40990592"/>
+        <c:axId val="92401664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1277,7 +1289,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41005056"/>
+        <c:crossAx val="92403584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1285,7 +1297,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41005056"/>
+        <c:axId val="92403584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1321,7 +1333,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40990592"/>
+        <c:crossAx val="92401664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -1959,7 +1971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -2106,7 +2118,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2115,6 +2127,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2136,7 +2151,7 @@
         <v>8.6199999999999992</v>
       </c>
       <c r="D2">
-        <v>56.28</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2164,7 +2179,121 @@
         <v>9.3699999999999992</v>
       </c>
       <c r="D4">
-        <v>54.6</v>
+        <v>52.16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>6.43</v>
+      </c>
+      <c r="C7">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="D7">
+        <v>53.78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>6.43</v>
+      </c>
+      <c r="C9">
+        <v>7.23</v>
+      </c>
+      <c r="D9">
+        <v>46.56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>6.43</v>
+      </c>
+      <c r="C12">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="D12">
+        <v>55.44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>6.43</v>
+      </c>
+      <c r="C14">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="D14">
+        <v>51.32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>6.43</v>
+      </c>
+      <c r="C17">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="D17">
+        <v>48.92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>6.43</v>
+      </c>
+      <c r="C19">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="D19">
+        <v>49.71</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
